--- a/INDIVIDUAL_ARGUMENTS/father_no.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/father_no.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>#id</t>
   </si>
@@ -29,24 +28,36 @@
     <t>Being fatherless would ensure that the only heartaches you have from him are his absence, and not knowing what he was like. A lousy father could come in gain your trust, and walk out on you. Some would like to believe that just knowing your father is there is enough. To me having a father who does nothing is in itself an absence because either way he knows nothing about you, and you nothing about him. I would rather him never exist than come in and out of my life.</t>
   </si>
   <si>
+    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+  </si>
+  <si>
     <t>arg35659</t>
   </si>
   <si>
     <t>I think it's better to be fatherless because having someone to look up to, I'd rather choose no father than having a uncaring and lousy father there to be a stain in my life. I wouldn't look up to him and he doesn't necessarily have to be the fatherly figure I have to look up to.</t>
   </si>
   <si>
+    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
+  </si>
+  <si>
     <t>arg35645</t>
   </si>
   <si>
     <t>Many people struggle with being fatherless. It is a challenge but it allows them to be tough and dependant on themselves. Being fatherless is hard but when it comes down to it, it is better to be fatherless than to have a lousy father. If you had a lousy father, they teach you the wrong things and don't allow you to expand.</t>
   </si>
   <si>
+    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35690</t>
   </si>
   <si>
     <t>Id rather be fatherless than to have a lousy father. Having a lousy father who tires to tell me what to but doesn't do anything with his life would just make me mad. Id rather be raised by my mother who is caring, loving, and actually does something with her life and works everyday to make money to put food on the table.</t>
   </si>
   <si>
+    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35679</t>
   </si>
   <si>
@@ -59,138 +70,207 @@
     <t>I would rather be father less it might sound bad but I dont want to think of my father as a lousy one. I would love my dad but it just wouldn't be the same if you had a bad father that just keep bringing you problems. You dont have to have a father you can talk to someone else. Maybe its just because I am girl it would be easier for me to talk to my mother.</t>
   </si>
   <si>
+    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35670</t>
   </si>
   <si>
     <t>I would rather be fatherless than to have a lousy father. I would want a good role model to look up to and to talk to. Not someone who is never there.</t>
   </si>
   <si>
+    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35673</t>
   </si>
   <si>
     <t>In my opinion it is better to be fatherless then to have a lousy father. I say this because if you have a lousy father than you have to deal with him and be ashamed of him. You would have to go day by day and know he is never going to be anything special, especially for you. But if you don't have a father you can always look up to someone else for that father figure.</t>
   </si>
   <si>
+    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg35703</t>
   </si>
   <si>
     <t>I think in any case its better to have no father then to have a lousy father either way you still lose. When you have a father you want him to be the best he can be so you can learn from him as you grow up. If you were to have a lousy father then whats the point of having a father at all if he's just going to be lousy and he wouldn't teach you anything. It's always better to have a respectable father figure in your life then to have a lousy father figure.</t>
   </si>
   <si>
+    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35675</t>
   </si>
   <si>
     <t>I rather be fatherless then having a lousy father because of this is that I wouldn't want to know how lousy he is and how bad he is of being a father. Being alone with just a mother is fine with me. It's just how I am. I wouldn't want to have a alcohlic father who drinks on the couch all day and curses my mother. It's just plain and simple, I have a good father or don't have a father at all even though he his still in the house, I wouldn't call him my father at all.</t>
   </si>
   <si>
+    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
+  </si>
+  <si>
     <t>arg35648</t>
   </si>
   <si>
     <t>I would rather be fatherless than have a father that is lousy and does absoultly nothing. Most kids look up to their dads, but if they aren't good fathers, then why have them around. It just means that the kid will want to be lousy like his dad. Besides, you can't miss what you never had.</t>
   </si>
   <si>
+    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35718</t>
   </si>
   <si>
     <t>Honestly, I'd rather be completely fatherless, not saying that not having is better than having one, albeit a lousy one. However, I do believe that you can grow up completely fatherless and without any major male role model and still be successful. Take myself for example; I lived the first thirteen years of my life without a father or any fatherly interaction, and those were the essential times a kid needed to be around his/her father, I turned out great(Self-opinion). So yes, as opposed to having a lousy father that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
+    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+  </si>
+  <si>
     <t>arg35604</t>
   </si>
   <si>
     <t>I think if i had a dad that did nothing for me i wouldnt want him around because odds are you and him arent going to be talking 5 years down the line anyway, so why try and make it work out if you already know what the outcome is.</t>
   </si>
   <si>
+    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35622</t>
   </si>
   <si>
     <t>I think it would be better fatherless the reason why is because i have never had a father in my life. I think that if you have a lousy father you will be taught to be lousy just like him. Parents are supposed to be setting examples for their kids, not just be lazy and that type of thing. Whats the point of having a bum for a father your whole life? you are not going to learn anything from him so why keep him? I feel like a mother can raise a son the same as a father can, well at least my mother did.</t>
   </si>
   <si>
+    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
+  </si>
+  <si>
     <t>arg35748</t>
   </si>
   <si>
     <t>Having a lousy father does not just leaves bumps, scrapes and scars externally. The damage goes much deeper. During those vital years of childhood having a bad dad isn't something that one forgets easily. Not only does it alter self confidence and self worth, it can covertly brand those bad habits in the mind of the child. The characteristics of an unfit parent are poisonous. I believe that it is better to be fatherless, rather than have a lousy father. Yes, it will take much effort to fill the shoes of the missing party, but it can and should be done.</t>
   </si>
   <si>
+    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+  </si>
+  <si>
     <t>arg35652</t>
   </si>
   <si>
     <t>I think it is better to be fatherless because a lousy father cannot do anything for the family.Imagine a father who is alcoholic and beats your mother, then you have no meaning of having a father.He creates violance and terror in the house and you alawys feel ashame to call him a father. It is better to be fatherless than to have a father who gives you a hard time.</t>
   </si>
   <si>
+    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg35724</t>
   </si>
   <si>
     <t>This argument could go both ways but I would have to agree with being fatherless because to me a lousy father is a father who is never there when you need him to be there or, he is never there to listen to what you have to say that's why being fatherless is better in my opinion because you can imagine your father to be whatever you want him to be and, it makes you a better person and a better father.</t>
   </si>
   <si>
+    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35758</t>
   </si>
   <si>
     <t>I would rather be "fatherless" then having a "lousy father", because a "father" is supposed to be the man of the house and set a good example so the rest of the family can look up to him. So if I look up at a lousy father I might then be a lousy person, but if I had no father then I'll set the standards for my own self and step up and be the man of the house especially if I had younger brothers or sisters.</t>
   </si>
   <si>
+    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35706</t>
   </si>
   <si>
     <t>It really sucks not having a man to look up to while your growing up. I believe that being fatherless is better then having a lousy father. The reason I believe this is the best is because you dont want to be looking up to a guy that does nothing in life and its just setting bad examples. Who knows you might grow up following his steps. So being fatherless is better because from day one you start depending on your own with no need of a father being there. And theres always going to be other people by your side helping you get through life.</t>
   </si>
   <si>
+    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35669</t>
   </si>
   <si>
     <t>Well, this is not an easy question to answer because both are kind of the same to me. But i would have to say fatherless because i'd rather have no man in my life than have somebody that isn't concerned about your life at all. To me that kind of is like being fatherless. I can always find another father figure or not even as much as a father figure, more like a male role model.</t>
   </si>
   <si>
+    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35591</t>
   </si>
   <si>
     <t>In my opinion, I believe it is better to be fatherless then to have a lousy father. I wouldnt know how it feel to have a lousy father but I have friends that there fathers are always drunk and never do anything to help them. They sometimes tell me they wish there dad wasn't around. Now if my dad was like that I would think the same because at least by not having a father you wouldnt know how it feels to be dissapointed by a father.</t>
   </si>
   <si>
+    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35633</t>
   </si>
   <si>
     <t>It can be either way, but I think being fatherless is better than having a lousy father because sometimes they get on your nerve and they make you do things you don't wanna do. But hey that's the way fathers' are. You still have other peoples to look up to even though your dad is not around.  I'm used to being alone with my mom without my dad there because he passed away when I was six. So, I really don't have a favorite side.</t>
   </si>
   <si>
+    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35606</t>
   </si>
   <si>
     <t>I believe that both are bad but I would rather go fatherless. What is the point of having someone in your life that is lousy? A father should set a good example for their children. If the dad is lousy then he is teaching his kids that it is okay to be that way and not do anything with their life. If I got married and my husband was a lousy father, I would tell him he better step up and be the dad I know he can be or get out the house a never come back.</t>
   </si>
   <si>
+    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35671</t>
   </si>
   <si>
     <t>This is just my opinion, but I think it would be better to be fatherless than to have a lousy father. I mean i was always tought that a true man should be someone respectable, honest, nd hard working, if he's not a that kind of man then he doesn't deserve to be a father in the first place. Besides just because you don't have a father that doesn't mean you can't have aa father figuer in you life.</t>
   </si>
   <si>
+    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35639</t>
   </si>
   <si>
     <t>I thinks its better if you be a fatherless than a lousy father because your lousy father would give you bad influence. Maybe you might follow your father as he is. But if your a fatherless is gonna be ok but not good either because you might not like being a fatherless. As long as you a lousy father or fatherless so they can encourage you to success in life and also help you correct your msitake that you had made.</t>
   </si>
   <si>
+    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35737</t>
   </si>
   <si>
     <t>I think both being fatherless and having lousy father is depressing. But for me i will prefer to be fatherless, because at least you know that being fatherless is a good reason for a father not to be around. It would hurt me the most if i had a lousy father and not to care about me. In this case i am in the middle of this two choices, that is because i have a father but he is not here in this country, i understand him because he left back to our country for a great reason. But i still need him here to support me.</t>
   </si>
   <si>
+    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35755</t>
   </si>
   <si>
     <t>I would support the fact of being fatherless then having a lousy father. Fathers most likely are supposed to be the provider for the household and solve the problems that comes in hand because his like the alpha male but if your lousy then what point is it for you to have around. Kids look towards their father as an example of how to be a man and to have responsibility's over the actions they make. so why not be fatherless when having a lousy father is the same thing.</t>
   </si>
   <si>
+    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35719</t>
   </si>
   <si>
     <t>A father is someone is always their for you. He's the one that teaches you how to throw a baseball, and comes to all of you baseball games. A father is someone that protects you from all the evils of the world. But if our father is someone that doesn't care about you and spends most of his time in his room, then how can you trust that man to protect you. A lousy father is someone that is someone that you have a hard time trusting. I would rather have no father, then a father that I cant even trust my life with.</t>
   </si>
   <si>
+    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg35705</t>
   </si>
   <si>
@@ -200,28 +280,43 @@
     <t>I personally feel that it is better to be fatherless, rather than having a lousy father. I personally know what it is like . My father was very lousy. The last time I saw him was when I was thirteen, and i havn't heard from him since. It doesn't bother me because I don't know him, and because he's not around I am never set up for any disapointment. So I think that to be fatherless is much better.</t>
   </si>
   <si>
+    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg35733</t>
   </si>
   <si>
     <t>Right Now, In My opinion to be fatherless. Trust me I Went through it. Sometimes I wish I Had a Lousy Father but Yet Not having A Father is so much better. It's been Eighteen Years since I've seen my Father but if he doesn't care then why should I? If he wanted to be in My life he could've been in my life. But being Fatherless is not bad because I have My Mother and To me that's My Father. I would rather have a Father who want to pay attention to me and actually be supportive of me.</t>
   </si>
   <si>
+    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg35616</t>
   </si>
   <si>
     <t>Although being fatherless is probably one of the biggest hardships, undesired by all. I would rather be fatherless, than to have to deal with someone who on a daily basis would frustrate me. At least when you have no knowledge of a father, you only ponder on it from time to time. On the other hand, a lousy father would be with you in your thoughts forever.</t>
   </si>
   <si>
+    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
+  </si>
+  <si>
     <t>arg35632</t>
   </si>
   <si>
     <t>It's better to be fatherless. Having a lousy father creates a bigger gap in your life than being fatherless. It is a proven fact that if you're a girl, you'll look for someone to be your other half that's similar to your father. Having a lousy father, for a girl, would mean having a lousy boyfriend as well. By having no father you don't have to worry about how terrible they are and all you have to do is ponder how amazing your dad could have been. Wondering what could have been is better than wondering how much better it could be.</t>
   </si>
   <si>
+    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
+  </si>
+  <si>
     <t>arg35678</t>
   </si>
   <si>
     <t>As a young boy you grow hoping and that they have a father figure in there life to be there when he is needed. The last thing they need is someone who lives with you and doesn't do anything to help you learn the ways of life and answer questions you may need to know for life. As a young man it is important that you have someone in your life to support you and push you to be successful in life.</t>
+  </si>
+  <si>
+    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -229,40 +324,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -270,361 +369,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B35" activeCellId="0" pane="topLeft" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="148.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="8.93877551020408"/>
+    <col customWidth="1" max="2" min="2" style="1" width="148.515306122449"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c s="0" r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c s="0" r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c s="0" r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c s="0" r="B25" t="s">
         <v>68</v>
       </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/father_no.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/father_no.xlsx
@@ -28,7 +28,7 @@
     <t>Being fatherless would ensure that the only heartaches you have from him are his absence, and not knowing what he was like. A lousy father could come in gain your trust, and walk out on you. Some would like to believe that just knowing your father is there is enough. To me having a father who does nothing is in itself an absence because either way he knows nothing about you, and you nothing about him. I would rather him never exist than come in and out of my life.</t>
   </si>
   <si>
-    <t>468,0.2,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.05,0.14</t>
+    <t>18.0,5.2,1.07,1.18,0.91,0.2,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.02,0.22,0.04,0.04,0.14,0.02,0.0,0.14,0.14,18.92</t>
   </si>
   <si>
     <t>arg35659</t>
@@ -37,7 +37,7 @@
     <t>I think it's better to be fatherless because having someone to look up to, I'd rather choose no father than having a uncaring and lousy father there to be a stain in my life. I wouldn't look up to him and he doesn't necessarily have to be the fatherly figure I have to look up to.</t>
   </si>
   <si>
-    <t>280,0.5,11.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.11,0.14</t>
+    <t>28.0,5.0,0.67,0.47,1.41,0.5,11.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.25,0.07,0.07,0.11,0.04,0.13,0.14,0.14,20.9</t>
   </si>
   <si>
     <t>arg35645</t>
@@ -46,7 +46,7 @@
     <t>Many people struggle with being fatherless. It is a challenge but it allows them to be tough and dependant on themselves. Being fatherless is hard but when it comes down to it, it is better to be fatherless than to have a lousy father. If you had a lousy father, they teach you the wrong things and don't allow you to expand.</t>
   </si>
   <si>
-    <t>325,0.5,12.26,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>15.5,5.24,0.74,0.94,0.78,0.5,12.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.26,0.05,0.05,0.15,0.02,0.0,0.0,0.0,15.08</t>
   </si>
   <si>
     <t>arg35690</t>
@@ -55,7 +55,7 @@
     <t>Id rather be fatherless than to have a lousy father. Having a lousy father who tires to tell me what to but doesn't do anything with his life would just make me mad. Id rather be raised by my mother who is caring, loving, and actually does something with her life and works everyday to make money to put food on the table.</t>
   </si>
   <si>
-    <t>322,0.33,12.1,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>21.0,5.11,0.75,0.71,1.06,0.33,12.1,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.08,0.25,0.06,0.06,0.08,0.02,0.0,0.0,0.0,13.88</t>
   </si>
   <si>
     <t>arg35679</t>
@@ -70,7 +70,7 @@
     <t>I would rather be father less it might sound bad but I dont want to think of my father as a lousy one. I would love my dad but it just wouldn't be the same if you had a bad father that just keep bringing you problems. You dont have to have a father you can talk to someone else. Maybe its just because I am girl it would be easier for me to talk to my mother.</t>
   </si>
   <si>
-    <t>359,0.75,9.22,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>19.5,4.6,0.93,0.94,0.98,0.75,9.22,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.23,0.09,0.09,0.21,0.0,0.0,0.0,0.0,18.0</t>
   </si>
   <si>
     <t>arg35670</t>
@@ -79,7 +79,7 @@
     <t>I would rather be fatherless than to have a lousy father. I would want a good role model to look up to and to talk to. Not someone who is never there.</t>
   </si>
   <si>
-    <t>150,0.0,8.44,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
+    <t>10.67,4.69,0.38,0.71,0.54,0.0,8.44,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.19,0.09,0.09,0.06,0.03,0.0,0.0,0.0,27.14</t>
   </si>
   <si>
     <t>arg35673</t>
@@ -88,7 +88,7 @@
     <t>In my opinion it is better to be fatherless then to have a lousy father. I say this because if you have a lousy father than you have to deal with him and be ashamed of him. You would have to go day by day and know he is never going to be anything special, especially for you. But if you don't have a father you can always look up to someone else for that father figure.</t>
   </si>
   <si>
-    <t>369,0.75,10.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.05,0.0</t>
+    <t>19.25,4.79,0.92,0.94,0.97,0.75,10.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.04,0.23,0.08,0.08,0.13,0.01,0.0,0.0,0.0,21.44</t>
   </si>
   <si>
     <t>arg35703</t>
@@ -97,7 +97,7 @@
     <t>I think in any case its better to have no father then to have a lousy father either way you still lose. When you have a father you want him to be the best he can be so you can learn from him as you grow up. If you were to have a lousy father then whats the point of having a father at all if he's just going to be lousy and he wouldn't teach you anything. It's always better to have a respectable father figure in your life then to have a lousy father figure.</t>
   </si>
   <si>
-    <t>459,0.0,10.14,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.25,0.3,0.0,0.0</t>
+    <t>24.25,4.73,1.16,0.94,1.22,0.0,10.14,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.08,0.23,0.08,0.08,0.14,0.01,0.0,0.0,0.0,21.0</t>
   </si>
   <si>
     <t>arg35675</t>
@@ -106,7 +106,7 @@
     <t>I rather be fatherless then having a lousy father because of this is that I wouldn't want to know how lousy he is and how bad he is of being a father. Being alone with just a mother is fine with me. It's just how I am. I wouldn't want to have a alcohlic father who drinks on the couch all day and curses my mother. It's just plain and simple, I have a good father or don't have a father at all even though he his still in the house, I wouldn't call him my father at all.</t>
   </si>
   <si>
-    <t>470,0.4,9.25,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.3,0.11,0.0</t>
+    <t>19.8,4.75,1.18,1.18,1.0,0.4,9.25,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.11,0.1,0.2,0.08,0.08,0.13,0.01,0.0,0.0,0.0,13.44</t>
   </si>
   <si>
     <t>arg35648</t>
@@ -115,7 +115,7 @@
     <t>I would rather be fatherless than have a father that is lousy and does absoultly nothing. Most kids look up to their dads, but if they aren't good fathers, then why have them around. It just means that the kid will want to be lousy like his dad. Besides, you can't miss what you never had.</t>
   </si>
   <si>
-    <t>289,0.5,11.07,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>14.0,5.16,0.67,0.94,0.71,0.5,11.07,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.27,0.11,0.11,0.14,0.02,0.0,0.0,0.0,22.44</t>
   </si>
   <si>
     <t>arg35718</t>
@@ -124,7 +124,7 @@
     <t>Honestly, I'd rather be completely fatherless, not saying that not having is better than having one, albeit a lousy one. However, I do believe that you can grow up completely fatherless and without any major male role model and still be successful. Take myself for example; I lived the first thirteen years of my life without a father or any fatherly interaction, and those were the essential times a kid needed to be around his/her father, I turned out great(Self-opinion). So yes, as opposed to having a lousy father that would rub off on me and mold me into half a man, I would much rather being fatherless.</t>
   </si>
   <si>
-    <t>610,0.25,14.58,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.16,0.0</t>
+    <t>27.0,5.65,1.29,0.94,1.36,0.25,14.58,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.12,0.19,0.09,0.09,0.08,0.04,0.25,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>arg35604</t>
@@ -133,7 +133,7 @@
     <t>I think if i had a dad that did nothing for me i wouldnt want him around because odds are you and him arent going to be talking 5 years down the line anyway, so why try and make it work out if you already know what the outcome is.</t>
   </si>
   <si>
-    <t>230,1.0,10.71,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
+    <t>50.0,4.6,0.6,0.24,2.52,1.0,10.71,0.0,0.04,1.0,1,0,0.0,0.0,0.0,0.12,0.0,0.28,0.08,0.08,0.14,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg35622</t>
@@ -142,7 +142,7 @@
     <t>I think it would be better fatherless the reason why is because i have never had a father in my life. I think that if you have a lousy father you will be taught to be lousy just like him. Parents are supposed to be setting examples for their kids, not just be lazy and that type of thing. Whats the point of having a bum for a father your whole life? you are not going to learn anything from him so why keep him? I feel like a mother can raise a son the same as a father can, well at least my mother did.</t>
   </si>
   <si>
-    <t>504,0.17,10.04,0.0,0.01,1.0,0.0,0.0,0.0,0.35,0.45,0.45,0.05,0.14</t>
+    <t>17.67,4.75,1.26,1.42,0.89,0.17,10.04,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.21,0.07,0.07,0.11,0.01,0.0,0.14,0.14,12.19</t>
   </si>
   <si>
     <t>arg35748</t>
@@ -151,7 +151,7 @@
     <t>Having a lousy father does not just leaves bumps, scrapes and scars externally. The damage goes much deeper. During those vital years of childhood having a bad dad isn't something that one forgets easily. Not only does it alter self confidence and self worth, it can covertly brand those bad habits in the mind of the child. The characteristics of an unfit parent are poisonous. I believe that it is better to be fatherless, rather than have a lousy father. Yes, it will take much effort to fill the shoes of the missing party, but it can and should be done.</t>
   </si>
   <si>
-    <t>558,0.14,13.76,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.21,0.29</t>
+    <t>14.43,5.52,1.2,1.65,0.73,0.14,13.76,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.2,0.09,0.09,0.08,0.04,0.38,0.29,0.29,6.68</t>
   </si>
   <si>
     <t>arg35652</t>
@@ -160,7 +160,7 @@
     <t>I think it is better to be fatherless because a lousy father cannot do anything for the family.Imagine a father who is alcoholic and beats your mother, then you have no meaning of having a father.He creates violance and terror in the house and you alawys feel ashame to call him a father. It is better to be fatherless than to have a father who gives you a hard time.</t>
   </si>
   <si>
-    <t>367,0.5,12.31,0.0,0.07,2.0,0.0,0.0,0.0,0.2,0.35,0.3,0.05,0.0</t>
+    <t>35.0,5.24,0.83,0.47,1.77,0.5,12.31,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.16,0.04,0.23,0.07,0.07,0.11,0.01,0.0,0.0,0.0,11.11</t>
   </si>
   <si>
     <t>arg35724</t>
@@ -169,7 +169,7 @@
     <t>This argument could go both ways but I would have to agree with being fatherless because to me a lousy father is a father who is never there when you need him to be there or, he is never there to listen to what you have to say that's why being fatherless is better in my opinion because you can imagine your father to be whatever you want him to be and, it makes you a better person and a better father.</t>
   </si>
   <si>
-    <t>403,3.0,12.38,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>82.0,4.91,0.98,0.24,4.14,3.0,12.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.23,0.06,0.06,0.16,0.01,0.0,0.0,0.0,17.0</t>
   </si>
   <si>
     <t>arg35758</t>
@@ -178,7 +178,7 @@
     <t>I would rather be "fatherless" then having a "lousy father", because a "father" is supposed to be the man of the house and set a good example so the rest of the family can look up to him. So if I look up at a lousy father I might then be a lousy person, but if I had no father then I'll set the standards for my own self and step up and be the man of the house especially if I had younger brothers or sisters.</t>
   </si>
   <si>
-    <t>409,1.5,10.28,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
+    <t>43.5,4.7,1.04,0.47,2.2,1.5,10.28,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.18,0.08,0.08,0.07,0.01,0.0,0.0,0.0,13.38</t>
   </si>
   <si>
     <t>arg35706</t>
@@ -187,7 +187,7 @@
     <t>It really sucks not having a man to look up to while your growing up. I believe that being fatherless is better then having a lousy father. The reason I believe this is the best is because you dont want to be looking up to a guy that does nothing in life and its just setting bad examples. Who knows you might grow up following his steps. So being fatherless is better because from day one you start depending on your own with no need of a father being there. And theres always going to be other people by your side helping you get through life.</t>
   </si>
   <si>
-    <t>545,0.33,12.42,0.0,0.02,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>17.67,5.14,1.26,1.42,0.89,0.33,12.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.09,0.07,0.27,0.08,0.08,0.11,0.01,0.0,0.0,0.0,13.05</t>
   </si>
   <si>
     <t>arg35669</t>
@@ -196,7 +196,7 @@
     <t>Well, this is not an easy question to answer because both are kind of the same to me. But i would have to say fatherless because i'd rather have no man in my life than have somebody that isn't concerned about your life at all. To me that kind of is like being fatherless. I can always find another father figure or not even as much as a father figure, more like a male role model.</t>
   </si>
   <si>
-    <t>380,0.75,11.19,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
+    <t>19.0,5.0,0.91,0.94,0.96,0.75,11.19,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.17,0.11,0.11,0.05,0.01,0.0,0.0,0.0,12.21</t>
   </si>
   <si>
     <t>arg35591</t>
@@ -205,7 +205,7 @@
     <t>In my opinion, I believe it is better to be fatherless then to have a lousy father. I wouldnt know how it feel to have a lousy father but I have friends that there fathers are always drunk and never do anything to help them. They sometimes tell me they wish there dad wasn't around. Now if my dad was like that I would think the same because at least by not having a father you wouldnt know how it feels to be dissapointed by a father.</t>
   </si>
   <si>
-    <t>435,0.5,11.7,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>21.75,5.0,1.04,0.94,1.1,0.5,11.7,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.13,0.06,0.28,0.1,0.1,0.15,0.01,0.0,0.0,0.0,22.0</t>
   </si>
   <si>
     <t>arg35633</t>
@@ -214,7 +214,7 @@
     <t>It can be either way, but I think being fatherless is better than having a lousy father because sometimes they get on your nerve and they make you do things you don't wanna do. But hey that's the way fathers' are. You still have other peoples to look up to even though your dad is not around.  I'm used to being alone with my mom without my dad there because he passed away when I was six. So, I really don't have a favorite side.</t>
   </si>
   <si>
-    <t>430,1.0,10.65,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>17.0,5.06,1.01,1.18,0.86,1.0,10.65,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.07,0.09,0.25,0.08,0.08,0.16,0.01,0.0,0.0,0.0,15.15</t>
   </si>
   <si>
     <t>arg35606</t>
@@ -223,7 +223,7 @@
     <t>I believe that both are bad but I would rather go fatherless. What is the point of having someone in your life that is lousy? A father should set a good example for their children. If the dad is lousy then he is teaching his kids that it is okay to be that way and not do anything with their life. If I got married and my husband was a lousy father, I would tell him he better step up and be the dad I know he can be or get out the house a never come back.</t>
   </si>
   <si>
-    <t>456,0.2,9.69,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.55,0.55,0.0,0.0</t>
+    <t>19.6,4.65,1.17,1.18,0.99,0.2,9.69,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.08,0.23,0.04,0.04,0.15,0.01,0.0,0.0,0.0,15.29</t>
   </si>
   <si>
     <t>arg35671</t>
@@ -232,7 +232,7 @@
     <t>This is just my opinion, but I think it would be better to be fatherless than to have a lousy father. I mean i was always tought that a true man should be someone respectable, honest, nd hard working, if he's not a that kind of man then he doesn't deserve to be a father in the first place. Besides just because you don't have a father that doesn't mean you can't have aa father figuer in you life.</t>
   </si>
   <si>
-    <t>398,1.0,11.14,0.0,0.03,1.0,0.0,0.0,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>26.33,5.04,0.94,0.71,1.33,1.0,11.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.16,0.06,0.27,0.11,0.11,0.1,0.03,0.0,0.0,0.0,13.35</t>
   </si>
   <si>
     <t>arg35639</t>
@@ -241,7 +241,7 @@
     <t>I thinks its better if you be a fatherless than a lousy father because your lousy father would give you bad influence. Maybe you might follow your father as he is. But if your a fatherless is gonna be ok but not good either because you might not like being a fatherless. As long as you a lousy father or fatherless so they can encourage you to success in life and also help you correct your msitake that you had made.</t>
   </si>
   <si>
-    <t>417,1.25,12.44,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>20.25,5.15,0.97,0.94,1.02,1.25,12.44,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.16,0.11,0.16,0.07,0.07,0.2,0.01,0.0,0.0,0.0,13.0</t>
   </si>
   <si>
     <t>arg35737</t>
@@ -250,7 +250,7 @@
     <t>I think both being fatherless and having lousy father is depressing. But for me i will prefer to be fatherless, because at least you know that being fatherless is a good reason for a father not to be around. It would hurt me the most if i had a lousy father and not to care about me. In this case i am in the middle of this two choices, that is because i have a father but he is not here in this country, i understand him because he left back to our country for a great reason. But i still need him here to support me.</t>
   </si>
   <si>
-    <t>518,1.2,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>21.4,4.84,1.28,1.18,1.08,1.2,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.12,0.07,0.21,0.07,0.07,0.09,0.03,0.13,0.0,0.0,11.39</t>
   </si>
   <si>
     <t>arg35755</t>
@@ -259,7 +259,7 @@
     <t>I would support the fact of being fatherless then having a lousy father. Fathers most likely are supposed to be the provider for the household and solve the problems that comes in hand because his like the alpha male but if your lousy then what point is it for you to have around. Kids look towards their father as an example of how to be a man and to have responsibility's over the actions they make. so why not be fatherless when having a lousy father is the same thing.</t>
   </si>
   <si>
-    <t>472,0.5,13.33,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.3,0.0,0.0</t>
+    <t>22.5,5.24,1.07,0.94,1.14,0.5,13.33,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.19,0.07,0.07,0.08,0.01,0.0,0.0,0.0,12.0</t>
   </si>
   <si>
     <t>arg35719</t>
@@ -268,7 +268,7 @@
     <t>A father is someone is always their for you. He's the one that teaches you how to throw a baseball, and comes to all of you baseball games. A father is someone that protects you from all the evils of the world. But if our father is someone that doesn't care about you and spends most of his time in his room, then how can you trust that man to protect you. A lousy father is someone that is someone that you have a hard time trusting. I would rather have no father, then a father that I cant even trust my life with.</t>
   </si>
   <si>
-    <t>516,0.17,10.87,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.0,0.0</t>
+    <t>17.33,4.96,1.24,1.42,0.88,0.17,10.87,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.03,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>arg35705</t>
@@ -280,7 +280,7 @@
     <t>I personally feel that it is better to be fatherless, rather than having a lousy father. I personally know what it is like . My father was very lousy. The last time I saw him was when I was thirteen, and i havn't heard from him since. It doesn't bother me because I don't know him, and because he's not around I am never set up for any disapointment. So I think that to be fatherless is much better.</t>
   </si>
   <si>
-    <t>399,0.33,10.42,0.0,0.03,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.05,0.0</t>
+    <t>13.17,5.05,0.94,1.42,0.66,0.33,10.42,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.06,0.08,0.27,0.11,0.11,0.18,0.03,0.0,0.0,0.0,17.91</t>
   </si>
   <si>
     <t>arg35733</t>
@@ -289,7 +289,7 @@
     <t>Right Now, In My opinion to be fatherless. Trust me I Went through it. Sometimes I wish I Had a Lousy Father but Yet Not having A Father is so much better. It's been Eighteen Years since I've seen my Father but if he doesn't care then why should I? If he wanted to be in My life he could've been in my life. But being Fatherless is not bad because I have My Mother and To me that's My Father. I would rather have a Father who want to pay attention to me and actually be supportive of me.</t>
   </si>
   <si>
-    <t>487,0.71,9.53,0.0,0.0,1.0,0.0,0.01,0.0,0.4,0.4,0.4,0.05,0.0</t>
+    <t>14.29,4.87,1.19,1.65,0.72,0.71,9.53,0.0,0.0,1.0,0,0,0.0,0.01,0.0,0.16,0.05,0.23,0.06,0.06,0.13,0.02,0.13,0.0,0.0,15.87</t>
   </si>
   <si>
     <t>arg35616</t>
@@ -298,7 +298,7 @@
     <t>Although being fatherless is probably one of the biggest hardships, undesired by all. I would rather be fatherless, than to have to deal with someone who on a daily basis would frustrate me. At least when you have no knowledge of a father, you only ponder on it from time to time. On the other hand, a lousy father would be with you in your thoughts forever.</t>
   </si>
   <si>
-    <t>358,0.25,13.15,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.16,0.29</t>
+    <t>16.75,5.34,0.8,0.94,0.85,0.25,13.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.16,0.04,0.04,0.09,0.01,0.0,0.29,0.29,12.06</t>
   </si>
   <si>
     <t>arg35632</t>
@@ -307,7 +307,7 @@
     <t>It's better to be fatherless. Having a lousy father creates a bigger gap in your life than being fatherless. It is a proven fact that if you're a girl, you'll look for someone to be your other half that's similar to your father. Having a lousy father, for a girl, would mean having a lousy boyfriend as well. By having no father you don't have to worry about how terrible they are and all you have to do is ponder how amazing your dad could have been. Wondering what could have been is better than wondering how much better it could be.</t>
   </si>
   <si>
-    <t>536,0.0,12.09,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.11,0.14</t>
+    <t>17.0,5.25,1.22,1.42,0.86,0.0,12.09,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.15,0.25,0.01,0.01,0.09,0.01,0.0,0.14,0.14,12.05</t>
   </si>
   <si>
     <t>arg35678</t>
@@ -316,7 +316,7 @@
     <t>As a young boy you grow hoping and that they have a father figure in there life to be there when he is needed. The last thing they need is someone who lives with you and doesn't do anything to help you learn the ways of life and answer questions you may need to know for life. As a young man it is important that you have someone in your life to support you and push you to be successful in life.</t>
   </si>
   <si>
-    <t>396,0.0,11.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>27.33,4.83,0.98,0.71,1.38,0.0,11.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.06,0.24,0.04,0.04,0.15,0.01,0.13,0.0,0.0,9.16</t>
   </si>
 </sst>
 </file>
